--- a/Plancheck/check_protocol/sein ganglions.xlsx
+++ b/Plancheck/check_protocol/sein ganglions.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="170">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -529,10 +529,10 @@
     <t>RingPTVSein</t>
   </si>
   <si>
-    <t>Plexus Gche</t>
-  </si>
-  <si>
-    <t>Plexus Dt</t>
+    <t>PlexusGche</t>
+  </si>
+  <si>
+    <t>PlexusDt</t>
   </si>
 </sst>
 </file>
@@ -2326,8 +2326,8 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,6 +2558,9 @@
       <c r="E22" s="12">
         <v>1</v>
       </c>
+      <c r="F22" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="G22" s="12">
         <v>1</v>
       </c>
@@ -2568,6 +2571,9 @@
       </c>
       <c r="E23" s="12">
         <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="G23" s="12">
         <v>1</v>
